--- a/cities/Jubail/Jubail.xlsx
+++ b/cities/Jubail/Jubail.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AL-Jubail Ind City</t>
+          <t>Jubail</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Jubail Industrial</t>
+          <t>Jubail</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>JUBAIL</t>
+          <t>Jubail</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>JUBAIL</t>
+          <t>Jubail</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jubail Industrial City</t>
+          <t>Jubail</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jubail Industrial City</t>
+          <t>Jubail</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
